--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st02.xlsx
@@ -5768,7 +5768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메이"]  오, 나탈리야 씨도 하는 것이냐?
+    <t xml:space="preserve">[name="메이"]  오, 나탈리야 씨도 아는 것이냐?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st02.xlsx
@@ -3212,7 +3212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Is it recording? "Test. Test."
+    <t xml:space="preserve">[name="Istina"]  Is it recording? 'Test. Test.'
 </t>
   </si>
   <si>
@@ -3228,7 +3228,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Closure lent me this device for the purposes of... Well, the application says "recording self-diagnosis and treatment of trauma using exposure therapy and related methods."
+    <t xml:space="preserve">[name="Istina"]  Closure lent me this device for the purposes of... Well, the application says 'recording self-diagnosis and treatment of trauma using exposure therapy and related methods.'
 </t>
   </si>
   <si>
@@ -3256,7 +3256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  "Why not try talking it through with yourself...?" They made it sound so easy.
+    <t xml:space="preserve">[name="Istina"]  'Why not try talking it through with yourself...?' They made it sound so easy.
 </t>
   </si>
   <si>
@@ -3320,7 +3320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  I am called "Istina"——This is, of course, a codename. My true name is Anna Morozova.
+    <t xml:space="preserve">[name="Istina"]  I am called 'Istina'——This is, of course, a codename. My true name is Anna Morozova.
 </t>
   </si>
   <si>
@@ -3336,7 +3336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Now I live at the headquarters of an organization called Rhodes Island, where I am classified as part of the "Ursus Student Self-Government Group."
+    <t xml:space="preserve">[name="Istina"]  Now I live at the headquarters of an organization called Rhodes Island, where I am classified as part of the 'Ursus Student Self-Government Group.'
 </t>
   </si>
   <si>
@@ -3356,7 +3356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  We currently serve as "Operators" for this Rhodes Island... I suppose it’s a kind of job.
+    <t xml:space="preserve">[name="Istina"]  We currently serve as 'Operators' for this Rhodes Island... I suppose it’s a kind of job.
 </t>
   </si>
   <si>
@@ -4108,7 +4108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  It’s been a while since I had a good talk about detective novels. And the plot in that one is indeed one of my favorites. "Riveting," you said?
+    <t xml:space="preserve">[name="Istina"]  It’s been a while since I had a good talk about detective novels. And the plot in that one is indeed one of my favorites. 'Riveting,' you said?
 </t>
   </si>
   <si>
@@ -4156,7 +4156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  You want to read too, Natalya? I never would have imagined. Every time I asked you before, you’d say the same thing: "When I have time."
+    <t xml:space="preserve">[name="Istina"]  You want to read too, Natalya? I never would have imagined. Every time I asked you before, you’d say the same thing: 'When I have time.'
 </t>
   </si>
   <si>
@@ -4212,7 +4212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Also, what was that about a "test," Natalya?
+    <t xml:space="preserve">[name="Istina"]  Also, what was that about a 'test,' Natalya?
 </t>
   </si>
   <si>
@@ -4280,15 +4280,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  And if we’re talking classics, we of course have to talk about "that one," eh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  "That one?" Do you mean...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  "That one!" Yes!
+    <t xml:space="preserve">[name="May"]  And if we’re talking classics, we of course have to talk about 'that one,' eh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  'That one?' Do you mean...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  'That one!' Yes!
 </t>
   </si>
   <si>
@@ -4296,7 +4296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  "One truth prevails! The murderer is——You!"
+    <t xml:space="preserve">[name="May"]  'One truth prevails! The murderer is——You!'
 </t>
   </si>
   <si>
@@ -4648,7 +4648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  As a "junior detective," keen powers of observation are a must, no?
+    <t xml:space="preserve">[name="Istina"]  As a 'junior detective,' keen powers of observation are a must, no?
 </t>
   </si>
   <si>
@@ -4752,7 +4752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  "The good news," huh?
+    <t xml:space="preserve">[name="Istina"]  'The good news,' huh?
 </t>
   </si>
   <si>
@@ -4844,7 +4844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="이스티나"]  제 증상을 완화하고 치료하고 싶다고 이야기하니, 의료팀의 오퍼레이터가 이런 제안을 해주었습니다……
+    <t xml:space="preserve">[name="이스티나"]  제 증상을 완화하고 치료하고 싶다고 이야기하니, 의료부의 오퍼레이터가 이런 제안을 해주었습니다……
 </t>
   </si>
   <si>
@@ -5788,7 +5788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="나탈리야"]  의료팀 오퍼레이터들이 특히 더 그래. 얼마 전엔 테스트를 받으러 갔었는데, 메딕 몇 명이 박사의 영양 밸런스에 관해서 이야기하더라고…… 그때 뭐라고 했더라? 일단은 간식부터 금지해야 한다고 했던가?
+    <t xml:space="preserve">[name="나탈리야"]  의료부 오퍼레이터들이 특히 더 그래. 얼마 전엔 테스트를 받으러 갔었는데, 메딕 몇 명이 박사의 영양 밸런스에 관해서 이야기하더라고…… 그때 뭐라고 했더라? 일단은 간식부터 금지해야 한다고 했던가?
 </t>
   </si>
   <si>
@@ -6280,7 +6280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메이"]  드론을 쓰면 이렇게나 간단히 찾을 수 있는 것인가? 켈시 선생님부터 시작해서 의료팀 사람들은 정말 대단한 것이다……
+    <t xml:space="preserve">[name="메이"]  드론을 쓰면 이렇게나 간단히 찾을 수 있는 것인가? 켈시 선생님부터 시작해서 의료부 사람들은 정말 대단한 것이다……
 </t>
   </si>
   <si>
@@ -6288,7 +6288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="나탈리야"]  미안, 안나. 의료팀에 가봐야 할 거 같아.
+    <t xml:space="preserve">[name="나탈리야"]  미안, 안나. 의료부에 가봐야 할 거 같아.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st02.xlsx
@@ -3208,7 +3208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  It’s plugged in.
+    <t xml:space="preserve">[name="Istina"]  It's plugged in.
 </t>
   </si>
   <si>
@@ -3260,27 +3260,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Okay, we have video now. Not that I’ll be showing this to anyone. Not that I would ever want to show this to anyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Calm down, Istina. No need to be nervous. We’re all friends here. Just speak your mind. Let it out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  All those things you’ve been unable to share with others, you can say to yourself. Over and over again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  It’s certainly a feasible idea.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  So let’s take us back...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  While it may seem like there’s nothing wrong, I know, sooner or later, we will have to deal with this. With so much.
+    <t xml:space="preserve">[name="Istina"]  Okay, we have video now. Not that I'll be showing this to anyone. Not that I would ever want to show this to anyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Calm down, Istina. No need to be nervous. We're all friends here. Just speak your mind. Let it out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  All those things you've been unable to share with others, you can say to yourself. Over and over again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  It's certainly a feasible idea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  So let's take us back...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  While it may seem like there's nothing wrong, I know, sooner or later, we will have to deal with this. With so much.
 </t>
   </si>
   <si>
@@ -3308,11 +3308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Let’s begin, for real this time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  I suppose I’ll introduce myself first?
+    <t xml:space="preserve">[name="Istina"]  Let's begin, for real this time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  I suppose I'll introduce myself first?
 </t>
   </si>
   <si>
@@ -3324,7 +3324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Mmm. It’s a name I’ve not heard in a long time. It is my name, of course, but it feels somewhat unfamiliar. How strange.
+    <t xml:space="preserve">[name="Istina"]  Mmm. It's a name I've not heard in a long time. It is my name, of course, but it feels somewhat unfamiliar. How strange.
 </t>
   </si>
   <si>
@@ -3332,11 +3332,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Vika was my best friend before I joined the Student Self-Government Group.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Now I live at the headquarters of an organization called Rhodes Island, where I am classified as part of the 'Ursus Student Self-Government Group.'
+    <t xml:space="preserve">[name="Istina"]  Vika was my best friend before I joined the Student Self-Governing Group.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Now I live at the headquarters of an organization called Rhodes Island, where I am classified as part of the 'Ursus Student Self-Governing Group.'
 </t>
   </si>
   <si>
@@ -3356,11 +3356,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  We currently serve as 'Operators' for this Rhodes Island... I suppose it’s a kind of job.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  I don’t mind it. Fair pay for fair work.
+    <t xml:space="preserve">[name="Istina"]  We currently serve as 'Operators' for this Rhodes Island... I suppose it's a kind of job.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  I don't mind it. Fair pay for fair work.
 </t>
   </si>
   <si>
@@ -3372,7 +3372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  The truth is, while we’re all together now, we did not come from the same school.
+    <t xml:space="preserve">[name="Istina"]  The truth is, while we're all together now, we did not come from the same school.
 </t>
   </si>
   <si>
@@ -3392,23 +3392,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Then some... things... happened. Reunion took a handful of kids from our school, me among them, and marched us over to Zima’s campus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  There may have been students from other schools there too. I’m not certain. It was a chaotic time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  It’s still not clear why they did it. But it was all orchestrated by the white-haired boy leading that Reunion outfit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  I think he may have been even younger than us? I don’t know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  I got the impression he had to convince the other leaders to round up the students, at which point they locked us inside Zima’s school.
+    <t xml:space="preserve">[name="Istina"]  Then some... things... happened. Reunion took a handful of kids from our school, me among them, and marched us over to Zima's campus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  There may have been students from other schools there too. I'm not certain. It was a chaotic time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  It's still not clear why they did it. But it was all orchestrated by the white-haired boy leading that Reunion outfit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  I think he may have been even younger than us? I don't know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  I got the impression he had to convince the other leaders to round up the students, at which point they locked us inside Zima's school.
 </t>
   </si>
   <si>
@@ -3424,7 +3424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Phew! Thank heaven it’s you.
+    <t xml:space="preserve">[name="???"]  Phew! Thank heaven it's you.
 </t>
   </si>
   <si>
@@ -3452,7 +3452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  (It wouldn’t be Gummy this early. Who could it be...?)
+    <t xml:space="preserve">[name="Istina"]  (It wouldn't be Gummy this early. Who could it be...?)
 </t>
   </si>
   <si>
@@ -3460,7 +3460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  (I think I’ll just leave the recording running. I don’t want to worry about saving and closing it.)
+    <t xml:space="preserve">[name="Istina"]  (I think I'll just leave the recording running. I don't want to worry about saving and closing it.)
 </t>
   </si>
   <si>
@@ -3468,7 +3468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  It’s me!
+    <t xml:space="preserve">[name="???"]  It's me!
 </t>
   </si>
   <si>
@@ -3476,7 +3476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Huh? I’m surprised at you, Junior Detective Istina! How could you not recognize my voice? Are you playing dumb?
+    <t xml:space="preserve">[name="???"]  Huh? I'm surprised at you, Junior Detective Istina! How could you not recognize my voice? Are you playing dumb?
 </t>
   </si>
   <si>
@@ -3484,7 +3484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  And I’ve told you a thousand times, I’m not your junior detective.
+    <t xml:space="preserve">[name="Istina"]  And I've told you a thousand times, I'm not your junior detective.
 </t>
   </si>
   <si>
@@ -3492,7 +3492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Good afternoon, Anna. I’m here to bother you too.
+    <t xml:space="preserve">[name="???"]  Good afternoon, Anna. I'm here to bother you too.
 </t>
   </si>
   <si>
@@ -3524,7 +3524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  I’m not busy. Don’t worry about it.
+    <t xml:space="preserve">[name="Istina"]  I'm not busy. Don't worry about it.
 </t>
   </si>
   <si>
@@ -3536,11 +3536,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Relax. If Anna says we’re not bothering her, we’re not bothering her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Anna doesn’t lie about things like that, now does she?
+    <t xml:space="preserve">[name="Natalya"]  Relax. If Anna says we're not bothering her, we're not bothering her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Anna doesn't lie about things like that, now does she?
 </t>
   </si>
   <si>
@@ -3556,7 +3556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  I’ve been very clear with you that I’m not interested in this junior detective nonsense.
+    <t xml:space="preserve">[name="Istina"]  I've been very clear with you that I'm not interested in this junior detective nonsense.
 </t>
   </si>
   <si>
@@ -3564,15 +3564,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  But I’d think you are the type to lock your door, actually. Anna’s always been the most cautious of us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Don’t tease me, Natalya.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Heh heh. I just can’t help myself with that adorable face of yours.
+    <t xml:space="preserve">[name="Natalya"]  But I'd think you are the type to lock your door, actually. Anna's always been the most cautious of us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Don't tease me, Natalya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Heh heh. I just can't help myself with that adorable face of yours.
 </t>
   </si>
   <si>
@@ -3580,7 +3580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Anyway, it’s quite nice that you take high tea in the afternoon. As it should be!
+    <t xml:space="preserve">[name="May"]  Anyway, it's quite nice that you take high tea in the afternoon. As it should be!
 </t>
   </si>
   <si>
@@ -3588,7 +3588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  What? What’s that supposed to mean?!
+    <t xml:space="preserve">[name="May"]  What? What's that supposed to mean?!
 </t>
   </si>
   <si>
@@ -3596,7 +3596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Oh? How dare you? That’s over the line!
+    <t xml:space="preserve">[name="May"]  Oh? How dare you? That's over the line!
 </t>
   </si>
   <si>
@@ -3604,7 +3604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Oh? Biscuits? Now that’s unexpected...
+    <t xml:space="preserve">[name="Istina"]  Oh? Biscuits? Now that's unexpected...
 </t>
   </si>
   <si>
@@ -3612,19 +3612,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Sorry, I didn’t expect you to bring snacks. I figured you only came to mooch some tea. I misjudged you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  I’m not some freeloader!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Look, I prepared an extra special thank you gift! With Hibiscus’s famous vegetable scones——!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Very good. Let’s see you off now. Hurry on back where you came from.
+    <t xml:space="preserve">[name="Istina"]  Sorry, I didn't expect you to bring snacks. I figured you only came to mooch some tea. I misjudged you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  I'm not some freeloader!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Look, I prepared an extra special thank you gift! With Hibiscus's famous vegetable scones——!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Very good. Let's see you off now. Hurry on back where you came from.
 </t>
   </si>
   <si>
@@ -3632,7 +3632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Hey now, you needn’t be so forceful. The scones are delightful, I promise.
+    <t xml:space="preserve">[name="May"]  Hey now, you needn't be so forceful. The scones are delightful, I promise.
 </t>
   </si>
   <si>
@@ -3640,7 +3640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  No thank you... Really, stop, I... Don’t just shove it in——
+    <t xml:space="preserve">[name="Istina"]  No thank you... Really, stop, I... Don't just shove it in——
 </t>
   </si>
   <si>
@@ -3648,11 +3648,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Ahahahahaha! Now this is what I meant by you two getting along. I’m jealous.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina &amp; May"]  Utter nonsense. You think we’re getting along? / Hehe, like two peas in a pod, eh?
+    <t xml:space="preserve">[name="Natalya"]  Ahahahahaha! Now this is what I meant by you two getting along. I'm jealous.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina &amp; May"]  Utter nonsense. You think we're getting along? / Hehe, like two peas in a pod, eh?
 </t>
   </si>
   <si>
@@ -3664,11 +3664,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Not that we get along poorly, I’d say we just...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  I had this all wrong. We don’t like each other at all!
+    <t xml:space="preserve">[name="Istina"]  Not that we get along poorly, I'd say we just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  I had this all wrong. We don't like each other at all!
 </t>
   </si>
   <si>
@@ -3692,35 +3692,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  There’s no way we could be that funny. But whatever... May’s here to give back my book. What brings you over, Natalya?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Me? I’ve had some things on my mind lately. Things I want to talk over with you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Oh? Important things? That’s not like you. Especially to have you come to me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Hey now, I’ve always been close to you, Anna.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  But it’s really nothing that important. We can come back to it later. Let’s enjoy our tea time for now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Yes, let’s.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Woah, May! Be careful! Don’t go prancing around with your teacup. It’ll spill.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  I’m not a child! It won’t spill.
+    <t xml:space="preserve">[name="Istina"]  There's no way we could be that funny. But whatever... May's here to give back my book. What brings you over, Natalya?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Me? I've had some things on my mind lately. Things I want to talk over with you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Oh? Important things? That's not like you. Especially to have you come to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Hey now, I've always been close to you, Anna.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  But it's really nothing that important. We can come back to it later. Let's enjoy our tea time for now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Yes, let's.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Woah, May! Be careful! Don't go prancing around with your teacup. It'll spill.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  I'm not a child! It won't spill.
 </t>
   </si>
   <si>
@@ -3728,15 +3728,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Sorry, I wasn’t expecting guests, so the room’s a bit messy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  There isn’t a good place to entertain guests in the dormitory. But you don’t have to stand there, Natalya. Just sit anywhere, like May.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  I’ll take you up on that.
+    <t xml:space="preserve">[name="Istina"]  Sorry, I wasn't expecting guests, so the room's a bit messy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  There isn't a good place to entertain guests in the dormitory. But you don't have to stand there, Natalya. Just sit anywhere, like May.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  I'll take you up on that.
 </t>
   </si>
   <si>
@@ -3744,7 +3744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  You’re right that they don’t make for good house parties though. Not like we used to have.
+    <t xml:space="preserve">[name="Natalya"]  You're right that they don't make for good house parties though. Not like we used to have.
 </t>
   </si>
   <si>
@@ -3756,11 +3756,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  What’s the difference?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  They’re completely different!
+    <t xml:space="preserve">[name="Natalya"]  What's the difference?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  They're completely different!
 </t>
   </si>
   <si>
@@ -3776,7 +3776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Let’s not get carried away.
+    <t xml:space="preserve">[name="Natalya"]  Let's not get carried away.
 </t>
   </si>
   <si>
@@ -3788,27 +3788,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  If it weren’t for you, Anna, I’m sure Sonya would be butting heads with everyone left and right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  I honestly think we live quite well right now. It’s leagues better than when they had me on undercover investigations.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  And by the way, Istina, your room is already very clean. You’ve got so many books, and they’re all so well-organized.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  We’re still in the midst of setting it all straight. And Gummy’s always been rather fastidious. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  That’s true. Our Gummy does like to sort things.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Even back in those days, in a place like that, she’d still keep everything we gathered all nicely sorted.
+    <t xml:space="preserve">[name="Natalya"]  If it weren't for you, Anna, I'm sure Sonya would be butting heads with everyone left and right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  I honestly think we live quite well right now. It's leagues better than when they had me on undercover investigations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  And by the way, Istina, your room is already very clean. You've got so many books, and they're all so well-organized.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  We're still in the midst of setting it all straight. And Gummy's always been rather fastidious. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  That's true. Our Gummy does like to sort things.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Even back in those days, in a place like that, she'd still keep everything we gathered all nicely sorted.
 </t>
   </si>
   <si>
@@ -3824,7 +3824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Oh, and who’s this lovely little doll here?
+    <t xml:space="preserve">[name="May"]  Oh, and who's this lovely little doll here?
 </t>
   </si>
   <si>
@@ -3832,7 +3832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Don’t touch her!
+    <t xml:space="preserve">[name="Istina"]  Don't touch her!
 </t>
   </si>
   <si>
@@ -3840,11 +3840,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Wh- what’s the matter? You scared the life out of me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  You didn’t have to be so rough.
+    <t xml:space="preserve">[name="May"]  Wh- what's the matter? You scared the life out of me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  You didn't have to be so rough.
 </t>
   </si>
   <si>
@@ -3852,15 +3852,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  It’s just, this is something very important to me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  That’s...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Anna, didn’t that belong to...
+    <t xml:space="preserve">[name="Istina"]  It's just, this is something very important to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  That's...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Anna, didn't that belong to...
 </t>
   </si>
   <si>
@@ -3876,7 +3876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  I’m fine. Don’t worry.
+    <t xml:space="preserve">[name="Istina"]  I'm fine. Don't worry.
 </t>
   </si>
   <si>
@@ -3896,7 +3896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  ...It was tragic. But we all know it wasn’t your fault.
+    <t xml:space="preserve">[name="Natalya"]  ...It was tragic. But we all know it wasn't your fault.
 </t>
   </si>
   <si>
@@ -3908,23 +3908,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  I know. Thank you. I’m fine, Natalya.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  I’m fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’m fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That’s what I’ve always said to everyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zima, Gummy, Leto, Natalya... They all think I’ll be fine.
+    <t xml:space="preserve">[name="Istina"]  I know. Thank you. I'm fine, Natalya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  I'm fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's what I've always said to everyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zima, Gummy, Leto, Natalya... They all think I'll be fine.
 </t>
   </si>
   <si>
@@ -3932,7 +3932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It wasn’t my fault.
+    <t xml:space="preserve">It wasn't my fault.
 </t>
   </si>
   <si>
@@ -3944,7 +3944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No, I wasn’t late.
+    <t xml:space="preserve">No, I wasn't late.
 </t>
   </si>
   <si>
@@ -3956,11 +3956,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">——I’d already made my choice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Ah, this book! Isn’t it the last volume of the detective series I’ve been reading?
+    <t xml:space="preserve">——I'd already made my choice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Ah, this book! Isn't it the last volume of the detective series I've been reading?
 </t>
   </si>
   <si>
@@ -3968,11 +3968,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  This is the most precious title in the series. The final act in the story of the world’s greatest detective... Hmph, I had to beg the Doctor over and over again to help me hunt it down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Oh, that reminds me... Back in the old country, I saw what I’m pretty sure was a signed copy of the first edition on the bookshelf at home.
+    <t xml:space="preserve">[name="Istina"]  This is the most precious title in the series. The final act in the story of the world's greatest detective... Hmph, I had to beg the Doctor over and over again to help me hunt it down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Oh, that reminds me... Back in the old country, I saw what I'm pretty sure was a signed copy of the first edition on the bookshelf at home.
 </t>
   </si>
   <si>
@@ -3988,15 +3988,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  I remember Sonya saying Anna moved mountains to try to get any signed copy of that author’s work. And she’s still empty-handed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  They’re just too rare.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  (Uh oh. It was that special, was it? There’s too much old stuff like that back home. I never noticed!)
+    <t xml:space="preserve">[name="Natalya"]  I remember Sonya saying Anna moved mountains to try to get any signed copy of that author's work. And she's still empty-handed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  They're just too rare.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  (Uh oh. It was that special, was it? There's too much old stuff like that back home. I never noticed!)
 </t>
   </si>
   <si>
@@ -4008,7 +4008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"] ...I can. But didn’t you say you’d read it before?
+    <t xml:space="preserve">[name="Istina"] ...I can. But didn't you say you'd read it before?
 </t>
   </si>
   <si>
@@ -4016,11 +4016,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Oh, well... I did, but it’s been so long, you see. It’s about time for a reread. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  It- it’s really quite something that you’ve got a book like this here. Hahaha, you can read it anytime you like!
+    <t xml:space="preserve">[name="May"]  Oh, well... I did, but it's been so long, you see. It's about time for a reread. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  It- it's really quite something that you've got a book like this here. Hahaha, you can read it anytime you like!
 </t>
   </si>
   <si>
@@ -4032,7 +4032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Oh, Istina, that’s marvelous! You’re the greatest!
+    <t xml:space="preserve">[name="May"]  Oh, Istina, that's marvelous! You're the greatest!
 </t>
   </si>
   <si>
@@ -4056,23 +4056,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Oh, these biscuits are to die for. You really won’t have one, Istina?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  I didn’t say anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  They’re just normal biscuits, are they? I could have a taste...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  But I didn’t expect to see you and Natalya together. How do you know one another?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Oh, I wouldn’t say we know each other that well. Natalya just happened to lend a hand when I was covertly investigating Penguin Logistics.
+    <t xml:space="preserve">[name="May"]  Oh, these biscuits are to die for. You really won't have one, Istina?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  I didn't say anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  They're just normal biscuits, are they? I could have a taste...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  But I didn't expect to see you and Natalya together. How do you know one another?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Oh, I wouldn't say we know each other that well. Natalya just happened to lend a hand when I was covertly investigating Penguin Logistics.
 </t>
   </si>
   <si>
@@ -4080,19 +4080,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  You talk about investigating Penguin Logistics quite a bit. Still haven’t given up on that, eh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  I’ll never give up! I’ve staked my reputation as a Royal Detective——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Personally, I think you’ve long since forfeited your reputation as a Royal Detective.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Why you...! Hmph. I’ve had just about enough of you!
+    <t xml:space="preserve">[name="Istina"]  You talk about investigating Penguin Logistics quite a bit. Still haven't given up on that, eh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  I'll never give up! I've staked my reputation as a Royal Detective——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Personally, I think you've long since forfeited your reputation as a Royal Detective.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Why you...! Hmph. I've had just about enough of you!
 </t>
   </si>
   <si>
@@ -4100,15 +4100,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  What’s more, the last book I borrowed from you was absolutely riveting. I just had to come talk about it as soon as I turned the last page!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Well, that’s not entirely off the table...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  It’s been a while since I had a good talk about detective novels. And the plot in that one is indeed one of my favorites. 'Riveting,' you said?
+    <t xml:space="preserve">[name="May"]  What's more, the last book I borrowed from you was absolutely riveting. I just had to come talk about it as soon as I turned the last page!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Well, that's not entirely off the table...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  It's been a while since I had a good talk about detective novels. And the plot in that one is indeed one of my favorites. 'Riveting,' you said?
 </t>
   </si>
   <si>
@@ -4116,11 +4116,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  I’m sure. It’s a perfect cocktail of literary creativity and logical deduction that jabs the reader right in the psyche. Easily my favorite one in the series.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Oh——I see. It’s so clear to me!
+    <t xml:space="preserve">[name="Istina"]  I'm sure. It's a perfect cocktail of literary creativity and logical deduction that jabs the reader right in the psyche. Easily my favorite one in the series.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Oh——I see. It's so clear to me!
 </t>
   </si>
   <si>
@@ -4128,7 +4128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Fool! You can’t just spoil the whole thing! Natalya hasn’t read it yet!
+    <t xml:space="preserve">[name="Istina"]  Fool! You can't just spoil the whole thing! Natalya hasn't read it yet!
 </t>
   </si>
   <si>
@@ -4144,7 +4144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Interesting. You really like your detective novels, eh, Anna? I don’t usually see you so excited to talk about something.
+    <t xml:space="preserve">[name="Natalya"]  Interesting. You really like your detective novels, eh, Anna? I don't usually see you so excited to talk about something.
 </t>
   </si>
   <si>
@@ -4152,11 +4152,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Really. In fact, I think you’ll have to let me read one too. Since they’re clearly so compelling.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  You want to read too, Natalya? I never would have imagined. Every time I asked you before, you’d say the same thing: 'When I have time.'
+    <t xml:space="preserve">[name="Natalya"]  Really. In fact, I think you'll have to let me read one too. Since they're clearly so compelling.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  You want to read too, Natalya? I never would have imagined. Every time I asked you before, you'd say the same thing: 'When I have time.'
 </t>
   </si>
   <si>
@@ -4164,7 +4164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  But when I see the two of you crowing on about these books, I can’t help but want to join in.
+    <t xml:space="preserve">[name="Natalya"]  But when I see the two of you crowing on about these books, I can't help but want to join in.
 </t>
   </si>
   <si>
@@ -4172,7 +4172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  There really aren’t many people here who can hold a conversation about great art... The Doctor reads, but finding time for a conversation is no simple task.
+    <t xml:space="preserve">[name="May"]  There really aren't many people here who can hold a conversation about great art... The Doctor reads, but finding time for a conversation is no simple task.
 </t>
   </si>
   <si>
@@ -4180,31 +4180,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  I see you’re familiar, Natalya?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  I am. That one is quite a unique presence on this vessel. And I’ve had the pleasure of bearing witness to that particular commander’s field operations.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  It’s too bad. There’s some special meeting or some-such on today. I wanted to give the Doctor a biscuit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Don’t worry, I’m sure Hibiscus will make sure the Doctor gets a share.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Yes. Dr. Kal’tsit keeps a close eye, but it’s clear that everyone is just as concerned about the Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  The medical staff, in particular. I went for a test recently and overheard several medics discussing adjustments to the Doctor’s diet... I believe the confiscation of snacks was mentioned?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Hahahaha. That’s a fairly reasonable step, no?
+    <t xml:space="preserve">[name="May"]  I see you're familiar, Natalya?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  I am. That one is quite a unique presence on this vessel. And I've had the pleasure of bearing witness to that particular commander's field operations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  It's too bad. There's some special meeting or some-such on today. I wanted to give the Doctor a biscuit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Don't worry, I'm sure Hibiscus will make sure the Doctor gets a share.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Yes. Dr. Kal'tsit keeps a close eye, but it's clear that everyone is just as concerned about the Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  The medical staff, in particular. I went for a test recently and overheard several medics discussing adjustments to the Doctor's diet... I believe the confiscation of snacks was mentioned?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Hahahaha. That's a fairly reasonable step, no?
 </t>
   </si>
   <si>
@@ -4216,7 +4216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Oh, I would appreciate some discretion in this matter. I haven’t made up my mind yet, but... it is why I came here today.
+    <t xml:space="preserve">[name="Natalya"]  Oh, I would appreciate some discretion in this matter. I haven't made up my mind yet, but... it is why I came here today.
 </t>
   </si>
   <si>
@@ -4224,11 +4224,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Now’s not the time, actually. Let’s come back to it another day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  You’ll know soon, Anna. In all likelihood. 
+    <t xml:space="preserve">[name="Natalya"]  Now's not the time, actually. Let's come back to it another day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  You'll know soon, Anna. In all likelihood. 
 </t>
   </si>
   <si>
@@ -4236,11 +4236,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  All right then. I won’t pry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Ahem, let’s get back to the matter at hand. Why don’t we start Natalya off with the classics?
+    <t xml:space="preserve">[name="Istina"]  All right then. I won't pry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Ahem, let's get back to the matter at hand. Why don't we start Natalya off with the classics?
 </t>
   </si>
   <si>
@@ -4248,15 +4248,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Hehe, it’s an excellent opportunity to introduce a friend to your beloved hobby.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  I wouldn’t let this go so easily.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Ooh... you’re positively oozing passion right now.
+    <t xml:space="preserve">[name="May"]  Hehe, it's an excellent opportunity to introduce a friend to your beloved hobby.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  I wouldn't let this go so easily.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Ooh... you're positively oozing passion right now.
 </t>
   </si>
   <si>
@@ -4264,11 +4264,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Don’t underestimate the power of the detective novel. No matter the type, a masterwork carries a living soul within it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Heh heh. That’s an Annaism if I’ve ever heard one. But that doesn’t make it any less true. 
+    <t xml:space="preserve">[name="Istina"]  Don't underestimate the power of the detective novel. No matter the type, a masterwork carries a living soul within it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Heh heh. That's an Annaism if I've ever heard one. But that doesn't make it any less true. 
 </t>
   </si>
   <si>
@@ -4280,7 +4280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  And if we’re talking classics, we of course have to talk about 'that one,' eh?
+    <t xml:space="preserve">[name="May"]  And if we're talking classics, we of course have to talk about 'that one,' eh?
 </t>
   </si>
   <si>
@@ -4300,7 +4300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Oh, I know that one. It’s a detective’s catchphrase.
+    <t xml:space="preserve">[name="Natalya"]  Oh, I know that one. It's a detective's catchphrase.
 </t>
   </si>
   <si>
@@ -4312,7 +4312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  But in my opinion, it’s after the culprit is found that the real thinking, the real interesting bit begins.
+    <t xml:space="preserve">[name="Istina"]  But in my opinion, it's after the culprit is found that the real thinking, the real interesting bit begins.
 </t>
   </si>
   <si>
@@ -4352,7 +4352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  What are you even talking about, Istina? You’ve been acting off all day. Are you feeling alright?
+    <t xml:space="preserve">[name="May"]  What are you even talking about, Istina? You've been acting off all day. Are you feeling alright?
 </t>
   </si>
   <si>
@@ -4360,23 +4360,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  ...I’m sorry?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  A detective’s duty is to uncover the truth. The rest is up to the police, of course. She can’t play judge, jury, and executioner.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Every part of the justice system plays a role. The police, the courts, and detectives like us. Isn’t that obvious?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  What’s that face now? Did I say something so shocking?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Of course I know a detective can’t legally convict a criminal.
+    <t xml:space="preserve">[name="Istina"]  ...I'm sorry?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  A detective's duty is to uncover the truth. The rest is up to the police, of course. She can't play judge, jury, and executioner.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Every part of the justice system plays a role. The police, the courts, and detectives like us. Isn't that obvious?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  What's that face now? Did I say something so shocking?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Of course I know a detective can't legally convict a criminal.
 </t>
   </si>
   <si>
@@ -4384,7 +4384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Hey now! What’s that supposed to mean?!
+    <t xml:space="preserve">[name="May"]  Hey now! What's that supposed to mean?!
 </t>
   </si>
   <si>
@@ -4392,7 +4392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Now, given the world we live in, we’ve got a fair number of people who pass their days killing and killing. Murder may not seem a crime of particularly immediate concern, but we’ll set that aside for the moment.
+    <t xml:space="preserve">[name="May"]  Now, given the world we live in, we've got a fair number of people who pass their days killing and killing. Murder may not seem a crime of particularly immediate concern, but we'll set that aside for the moment.
 </t>
   </si>
   <si>
@@ -4408,7 +4408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Indeed. You’re right...
+    <t xml:space="preserve">[name="Istina"]  Indeed. You're right...
 </t>
   </si>
   <si>
@@ -4424,11 +4424,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  You’re right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  No matter the justification, regardless of whether or not it is known to the world, what’s done is done.
+    <t xml:space="preserve">[name="Istina"]  You're right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  No matter the justification, regardless of whether or not it is known to the world, what's done is done.
 </t>
   </si>
   <si>
@@ -4440,11 +4440,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  ...Sorry. I shouldn’t have brought it up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Oh no, it was quite the enlightening discussion to witness. But on the rare occasion we meet again for afternoon tea, let’s discuss something a bit lighter.
+    <t xml:space="preserve">[name="Istina"]  ...Sorry. I shouldn't have brought it up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Oh no, it was quite the enlightening discussion to witness. But on the rare occasion we meet again for afternoon tea, let's discuss something a bit lighter.
 </t>
   </si>
   <si>
@@ -4452,7 +4452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  The tea’s gone cold.
+    <t xml:space="preserve">[name="May"]  The tea's gone cold.
 </t>
   </si>
   <si>
@@ -4464,7 +4464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  It’s, well, see for yourselves. What’s that outside the window?
+    <t xml:space="preserve">[name="May"]  It's, well, see for yourselves. What's that outside the window?
 </t>
   </si>
   <si>
@@ -4472,7 +4472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Oh, it’s... flying? And flying this way.
+    <t xml:space="preserve">[name="Natalya"]  Oh, it's... flying? And flying this way.
 </t>
   </si>
   <si>
@@ -4484,11 +4484,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  It is a drone... But what is it doing out here? Actually, I think it’s caught on the rigging.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Ah! Well, if it’s attached to the landship, it can’t be a threat, eh? Nothing to worry about then.
+    <t xml:space="preserve">[name="Istina"]  It is a drone... But what is it doing out here? Actually, I think it's caught on the rigging.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Ah! Well, if it's attached to the landship, it can't be a threat, eh? Nothing to worry about then.
 </t>
   </si>
   <si>
@@ -4496,7 +4496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Are you mad?! Don’t just go diving out windows!
+    <t xml:space="preserve">[name="Istina"]  Are you mad?! Don't just go diving out windows!
 </t>
   </si>
   <si>
@@ -4552,15 +4552,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  It definitely hurts, but I’m alright. Nothing permanent.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Oh, but there’s a note taped to the drone!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  And it’s for you, Natalya.
+    <t xml:space="preserve">[name="May"]  It definitely hurts, but I'm alright. Nothing permanent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Oh, but there's a note taped to the drone!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  And it's for you, Natalya.
 </t>
   </si>
   <si>
@@ -4584,15 +4584,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Wow, what happened? You look like you’ve seen a ghost!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  ...I’m fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Are you sure? You’re definitely not sick? I wouldn’t think any less of you.
+    <t xml:space="preserve">[name="May"]  Wow, what happened? You look like you've seen a ghost!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  ...I'm fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Are you sure? You're definitely not sick? I wouldn't think any less of you.
 </t>
   </si>
   <si>
@@ -4612,7 +4612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Well I didn’t think of that, okay?!
+    <t xml:space="preserve">[name="May"]  Well I didn't think of that, okay?!
 </t>
   </si>
   <si>
@@ -4620,7 +4620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t scare me like that. Idiot.
+    <t xml:space="preserve">Don't scare me like that. Idiot.
 </t>
   </si>
   <si>
@@ -4628,7 +4628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="May"]  Eh? No need for that, I’m really okay.
+    <t xml:space="preserve">[name="May"]  Eh? No need for that, I'm really okay.
 </t>
   </si>
   <si>
@@ -4636,7 +4636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Don’t play dumb with me. I see right through you. You have a terrible poker face.
+    <t xml:space="preserve">[name="Istina"]  Don't play dumb with me. I see right through you. You have a terrible poker face.
 </t>
   </si>
   <si>
@@ -4656,15 +4656,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Well, it’s not a deep cut. We’ll just wipe it clean, apply some disinfectant... and we’re done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  But you’ll still want to have a medic operator look at it, no matter how small the wound.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  It’s nothing serious. Don’t get so worked up!
+    <t xml:space="preserve">[name="Istina"]  Well, it's not a deep cut. We'll just wipe it clean, apply some disinfectant... and we're done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  But you'll still want to have a medic operator look at it, no matter how small the wound.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  It's nothing serious. Don't get so worked up!
 </t>
   </si>
   <si>
@@ -4684,47 +4684,47 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Yes, it’s about the test I mentioned before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  But it’s kind of scary. How did Dr. Silence know I was here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Anything’s possible with drones, right? From Dr. Kal'tsit on down, the medics all have their ways...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  That’s for sure.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Sorry, Anna, it seems I’m off to Medical.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  No problem. It’s clearly something important. Go take care of it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  Well, I’d better be on my way then too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="May"]  I’ve returned your book, and borrowed another. A complete success!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  What’s a complete success?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Let’s do this again soon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  If all goes well, I’m looking forward to telling the whole Self-Government Group the good news.
+    <t xml:space="preserve">[name="Natalya"]  Yes, it's about the test I mentioned before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  But it's kind of scary. How did Dr. Silence know I was here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Anything's possible with drones, right? From Dr. Kal'tsit on down, the medics all have their ways...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  That's for sure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Sorry, Anna, it seems I'm off to Medical.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  No problem. It's clearly something important. Go take care of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  Well, I'd better be on my way then too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="May"]  I've returned your book, and borrowed another. A complete success!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  What's a complete success?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Let's do this again soon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  If all goes well, I'm looking forward to telling the whole Self-Governing Group the good news.
 </t>
   </si>
   <si>
@@ -4772,15 +4772,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Would you blame me, if I did? You would, wouldn’t you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  No? I know that’s not true. I know you, Vika. And I know that’s a lie. In fact, I know you can’t speak at all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  You’ve been with me for so long. You’re still by my side today.
+    <t xml:space="preserve">[name="Istina"]  Would you blame me, if I did? You would, wouldn't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  No? I know that's not true. I know you, Vika. And I know that's a lie. In fact, I know you can't speak at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  You've been with me for so long. You're still by my side today.
 </t>
   </si>
   <si>
@@ -4792,7 +4792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  It seems... I am not strong enough. I still can’t do it. Not yet.
+    <t xml:space="preserve">[name="Istina"]  It seems... I am not strong enough. I still can't do it. Not yet.
 </t>
   </si>
   <si>
